--- a/data/output/FV2410_FV2404/UTILMD/55169.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55169.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21082" uniqueCount="1169">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21103" uniqueCount="1169">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3694,6 +3694,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U910" totalsRowShown="0">
+  <autoFilter ref="A1:U910"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3983,7 +4013,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U910"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -48496,5 +48529,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55169.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55169.xlsx
@@ -6836,7 +6836,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -9154,7 +9154,7 @@
         <v>1057</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -9428,7 +9428,7 @@
         <v>1058</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -9644,7 +9644,7 @@
         <v>1059</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -9848,7 +9848,7 @@
         <v>1061</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -10052,7 +10052,7 @@
         <v>1063</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -10256,7 +10256,7 @@
         <v>1065</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -10460,7 +10460,7 @@
         <v>1067</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -10664,7 +10664,7 @@
         <v>1068</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -11468,7 +11468,7 @@
         <v>1071</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -11738,7 +11738,7 @@
         <v>1072</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -12158,7 +12158,7 @@
         <v>1075</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -12632,7 +12632,7 @@
         <v>1077</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -12826,54 +12826,54 @@
       </c>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5" t="s">
+      <c r="E118" s="2"/>
+      <c r="F118" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
       <c r="J118" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="K118" s="5" t="s">
+      <c r="K118" s="2" t="s">
         <v>1078</v>
       </c>
       <c r="L118" s="7" t="s">
         <v>1169</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O118" s="5" t="s">
+      <c r="O118" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5" t="s">
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
       <c r="U118" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="V118" s="5" t="s">
+      <c r="V118" s="2" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -13074,7 +13074,7 @@
         <v>1080</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -13236,7 +13236,7 @@
         <v>1081</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -14264,7 +14264,7 @@
         <v>1082</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -14412,7 +14412,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -15334,7 +15334,7 @@
         <v>1082</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -15862,7 +15862,7 @@
         <v>1084</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -16612,7 +16612,7 @@
         <v>1085</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -16760,7 +16760,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -16920,7 +16920,7 @@
         <v>1086</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -17294,7 +17294,7 @@
         <v>1089</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -17956,7 +17956,7 @@
         <v>1091</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -18278,7 +18278,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -18714,7 +18714,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -19122,7 +19122,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -19676,7 +19676,7 @@
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -19878,7 +19878,7 @@
         <v>1094</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -20090,7 +20090,7 @@
         <v>1095</v>
       </c>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -20556,7 +20556,7 @@
         <v>1096</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -20814,7 +20814,7 @@
         <v>1097</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -21124,7 +21124,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -21342,7 +21342,7 @@
         <v>1099</v>
       </c>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -22636,7 +22636,7 @@
         <v>1102</v>
       </c>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -22940,7 +22940,7 @@
         <v>1103</v>
       </c>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -23088,7 +23088,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -23250,7 +23250,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -23468,7 +23468,7 @@
         <v>1105</v>
       </c>
       <c r="L323" s="4"/>
-      <c r="M323" s="2" t="s">
+      <c r="M323" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N323" s="2" t="s">
@@ -23880,7 +23880,7 @@
         <v>1106</v>
       </c>
       <c r="L331" s="4"/>
-      <c r="M331" s="2" t="s">
+      <c r="M331" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N331" s="2" t="s">
@@ -24080,7 +24080,7 @@
         <v>1107</v>
       </c>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -24278,7 +24278,7 @@
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -24424,7 +24424,7 @@
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -24940,7 +24940,7 @@
       </c>
       <c r="K352" s="2"/>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -25312,7 +25312,7 @@
         <v>1108</v>
       </c>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -25460,7 +25460,7 @@
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -25616,7 +25616,7 @@
         <v>1109</v>
       </c>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -25764,7 +25764,7 @@
       </c>
       <c r="K368" s="2"/>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -25926,7 +25926,7 @@
       </c>
       <c r="K371" s="2"/>
       <c r="L371" s="4"/>
-      <c r="M371" s="2" t="s">
+      <c r="M371" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N371" s="2" t="s">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -26334,7 +26334,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -26532,7 +26532,7 @@
         <v>1110</v>
       </c>
       <c r="L383" s="4"/>
-      <c r="M383" s="2" t="s">
+      <c r="M383" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N383" s="2" t="s">
@@ -26680,7 +26680,7 @@
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -26842,7 +26842,7 @@
       </c>
       <c r="K389" s="2"/>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -27002,7 +27002,7 @@
         <v>1111</v>
       </c>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -27262,7 +27262,7 @@
       </c>
       <c r="K397" s="2"/>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -27408,7 +27408,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -27562,7 +27562,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -27818,7 +27818,7 @@
         <v>1113</v>
       </c>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -27966,7 +27966,7 @@
       </c>
       <c r="K411" s="2"/>
       <c r="L411" s="4"/>
-      <c r="M411" s="2" t="s">
+      <c r="M411" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N411" s="2" t="s">
@@ -28128,7 +28128,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -28344,7 +28344,7 @@
       </c>
       <c r="K418" s="2"/>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -28490,7 +28490,7 @@
       </c>
       <c r="K421" s="2"/>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -28644,7 +28644,7 @@
       </c>
       <c r="K424" s="2"/>
       <c r="L424" s="4"/>
-      <c r="M424" s="2" t="s">
+      <c r="M424" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N424" s="2" t="s">
@@ -28790,7 +28790,7 @@
       </c>
       <c r="K427" s="2"/>
       <c r="L427" s="4"/>
-      <c r="M427" s="2" t="s">
+      <c r="M427" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N427" s="2" t="s">
@@ -28944,7 +28944,7 @@
       </c>
       <c r="K430" s="2"/>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -29090,7 +29090,7 @@
       </c>
       <c r="K433" s="2"/>
       <c r="L433" s="4"/>
-      <c r="M433" s="2" t="s">
+      <c r="M433" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N433" s="2" t="s">
@@ -29246,7 +29246,7 @@
         <v>1115</v>
       </c>
       <c r="L436" s="4"/>
-      <c r="M436" s="2" t="s">
+      <c r="M436" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N436" s="2" t="s">
@@ -29394,7 +29394,7 @@
       </c>
       <c r="K439" s="2"/>
       <c r="L439" s="4"/>
-      <c r="M439" s="2" t="s">
+      <c r="M439" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N439" s="2" t="s">
@@ -29558,7 +29558,7 @@
         <v>1116</v>
       </c>
       <c r="L442" s="4"/>
-      <c r="M442" s="2" t="s">
+      <c r="M442" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N442" s="2" t="s">
@@ -29724,7 +29724,7 @@
         <v>1117</v>
       </c>
       <c r="L445" s="4"/>
-      <c r="M445" s="2" t="s">
+      <c r="M445" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N445" s="2" t="s">
@@ -29890,7 +29890,7 @@
         <v>1118</v>
       </c>
       <c r="L448" s="4"/>
-      <c r="M448" s="2" t="s">
+      <c r="M448" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N448" s="2" t="s">
@@ -30056,7 +30056,7 @@
         <v>1119</v>
       </c>
       <c r="L451" s="4"/>
-      <c r="M451" s="2" t="s">
+      <c r="M451" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N451" s="2" t="s">
@@ -30218,7 +30218,7 @@
         <v>1120</v>
       </c>
       <c r="L454" s="4"/>
-      <c r="M454" s="2" t="s">
+      <c r="M454" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N454" s="2" t="s">
@@ -30476,7 +30476,7 @@
         <v>1121</v>
       </c>
       <c r="L459" s="4"/>
-      <c r="M459" s="2" t="s">
+      <c r="M459" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N459" s="2" t="s">
@@ -30734,7 +30734,7 @@
         <v>1122</v>
       </c>
       <c r="L464" s="4"/>
-      <c r="M464" s="2" t="s">
+      <c r="M464" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N464" s="2" t="s">
@@ -30990,7 +30990,7 @@
       </c>
       <c r="K469" s="2"/>
       <c r="L469" s="4"/>
-      <c r="M469" s="2" t="s">
+      <c r="M469" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N469" s="2" t="s">
@@ -31246,7 +31246,7 @@
         <v>1123</v>
       </c>
       <c r="L474" s="4"/>
-      <c r="M474" s="2" t="s">
+      <c r="M474" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N474" s="2" t="s">
@@ -31516,7 +31516,7 @@
         <v>1124</v>
       </c>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -31732,7 +31732,7 @@
         <v>1125</v>
       </c>
       <c r="L483" s="4"/>
-      <c r="M483" s="2" t="s">
+      <c r="M483" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N483" s="2" t="s">
@@ -31948,7 +31948,7 @@
         <v>1126</v>
       </c>
       <c r="L487" s="4"/>
-      <c r="M487" s="2" t="s">
+      <c r="M487" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N487" s="2" t="s">
@@ -32272,7 +32272,7 @@
         <v>1122</v>
       </c>
       <c r="L493" s="4"/>
-      <c r="M493" s="2" t="s">
+      <c r="M493" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N493" s="2" t="s">
@@ -32542,7 +32542,7 @@
         <v>1127</v>
       </c>
       <c r="L498" s="4"/>
-      <c r="M498" s="2" t="s">
+      <c r="M498" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N498" s="2" t="s">
@@ -32700,7 +32700,7 @@
         <v>1128</v>
       </c>
       <c r="L501" s="4"/>
-      <c r="M501" s="2" t="s">
+      <c r="M501" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N501" s="2" t="s">
@@ -33004,7 +33004,7 @@
         <v>1129</v>
       </c>
       <c r="L507" s="4"/>
-      <c r="M507" s="2" t="s">
+      <c r="M507" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N507" s="2" t="s">
@@ -33152,7 +33152,7 @@
       </c>
       <c r="K510" s="2"/>
       <c r="L510" s="4"/>
-      <c r="M510" s="2" t="s">
+      <c r="M510" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N510" s="2" t="s">
@@ -33310,7 +33310,7 @@
       </c>
       <c r="K513" s="2"/>
       <c r="L513" s="4"/>
-      <c r="M513" s="2" t="s">
+      <c r="M513" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N513" s="2" t="s">
@@ -33456,7 +33456,7 @@
       </c>
       <c r="K516" s="2"/>
       <c r="L516" s="4"/>
-      <c r="M516" s="2" t="s">
+      <c r="M516" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N516" s="2" t="s">
@@ -33668,7 +33668,7 @@
       </c>
       <c r="K520" s="2"/>
       <c r="L520" s="4"/>
-      <c r="M520" s="2" t="s">
+      <c r="M520" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N520" s="2" t="s">
@@ -33814,7 +33814,7 @@
       </c>
       <c r="K523" s="2"/>
       <c r="L523" s="4"/>
-      <c r="M523" s="2" t="s">
+      <c r="M523" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N523" s="2" t="s">
@@ -34136,7 +34136,7 @@
         <v>1130</v>
       </c>
       <c r="L529" s="4"/>
-      <c r="M529" s="2" t="s">
+      <c r="M529" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N529" s="2" t="s">
@@ -34284,7 +34284,7 @@
       </c>
       <c r="K532" s="2"/>
       <c r="L532" s="4"/>
-      <c r="M532" s="2" t="s">
+      <c r="M532" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N532" s="2" t="s">
@@ -34446,7 +34446,7 @@
       </c>
       <c r="K535" s="2"/>
       <c r="L535" s="4"/>
-      <c r="M535" s="2" t="s">
+      <c r="M535" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N535" s="2" t="s">
@@ -34658,7 +34658,7 @@
       </c>
       <c r="K539" s="2"/>
       <c r="L539" s="4"/>
-      <c r="M539" s="2" t="s">
+      <c r="M539" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N539" s="2" t="s">
@@ -34908,7 +34908,7 @@
       </c>
       <c r="K544" s="2"/>
       <c r="L544" s="4"/>
-      <c r="M544" s="2" t="s">
+      <c r="M544" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N544" s="2" t="s">
@@ -35262,7 +35262,7 @@
       </c>
       <c r="K551" s="2"/>
       <c r="L551" s="4"/>
-      <c r="M551" s="2" t="s">
+      <c r="M551" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N551" s="2" t="s">
@@ -35460,7 +35460,7 @@
         <v>1131</v>
       </c>
       <c r="L555" s="4"/>
-      <c r="M555" s="2" t="s">
+      <c r="M555" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N555" s="2" t="s">
@@ -35608,7 +35608,7 @@
       </c>
       <c r="K558" s="2"/>
       <c r="L558" s="4"/>
-      <c r="M558" s="2" t="s">
+      <c r="M558" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N558" s="2" t="s">
@@ -35772,7 +35772,7 @@
         <v>1117</v>
       </c>
       <c r="L561" s="4"/>
-      <c r="M561" s="2" t="s">
+      <c r="M561" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N561" s="2" t="s">
@@ -35932,7 +35932,7 @@
       </c>
       <c r="K564" s="2"/>
       <c r="L564" s="4"/>
-      <c r="M564" s="2" t="s">
+      <c r="M564" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N564" s="2" t="s">
@@ -36078,7 +36078,7 @@
       </c>
       <c r="K567" s="2"/>
       <c r="L567" s="4"/>
-      <c r="M567" s="2" t="s">
+      <c r="M567" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N567" s="2" t="s">
@@ -36518,7 +36518,7 @@
       </c>
       <c r="K575" s="2"/>
       <c r="L575" s="4"/>
-      <c r="M575" s="2" t="s">
+      <c r="M575" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N575" s="2" t="s">
@@ -36678,7 +36678,7 @@
         <v>1133</v>
       </c>
       <c r="L578" s="4"/>
-      <c r="M578" s="2" t="s">
+      <c r="M578" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N578" s="2" t="s">
@@ -36834,7 +36834,7 @@
       </c>
       <c r="K581" s="2"/>
       <c r="L581" s="4"/>
-      <c r="M581" s="2" t="s">
+      <c r="M581" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N581" s="2" t="s">
@@ -37242,7 +37242,7 @@
       </c>
       <c r="K589" s="2"/>
       <c r="L589" s="4"/>
-      <c r="M589" s="2" t="s">
+      <c r="M589" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N589" s="2" t="s">
@@ -37502,7 +37502,7 @@
         <v>1135</v>
       </c>
       <c r="L594" s="4"/>
-      <c r="M594" s="2" t="s">
+      <c r="M594" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N594" s="2" t="s">
@@ -37814,7 +37814,7 @@
         <v>1136</v>
       </c>
       <c r="L600" s="4"/>
-      <c r="M600" s="2" t="s">
+      <c r="M600" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N600" s="2" t="s">
@@ -37962,7 +37962,7 @@
       </c>
       <c r="K603" s="2"/>
       <c r="L603" s="4"/>
-      <c r="M603" s="2" t="s">
+      <c r="M603" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N603" s="2" t="s">
@@ -38126,7 +38126,7 @@
         <v>1137</v>
       </c>
       <c r="L606" s="4"/>
-      <c r="M606" s="2" t="s">
+      <c r="M606" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N606" s="2" t="s">
@@ -38290,7 +38290,7 @@
       </c>
       <c r="K609" s="2"/>
       <c r="L609" s="4"/>
-      <c r="M609" s="2" t="s">
+      <c r="M609" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N609" s="2" t="s">
@@ -38506,7 +38506,7 @@
       </c>
       <c r="K613" s="2"/>
       <c r="L613" s="4"/>
-      <c r="M613" s="2" t="s">
+      <c r="M613" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N613" s="2" t="s">
@@ -38652,7 +38652,7 @@
       </c>
       <c r="K616" s="2"/>
       <c r="L616" s="4"/>
-      <c r="M616" s="2" t="s">
+      <c r="M616" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N616" s="2" t="s">
@@ -38868,7 +38868,7 @@
       </c>
       <c r="K620" s="2"/>
       <c r="L620" s="4"/>
-      <c r="M620" s="2" t="s">
+      <c r="M620" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N620" s="2" t="s">
@@ -39082,7 +39082,7 @@
         <v>1137</v>
       </c>
       <c r="L624" s="4"/>
-      <c r="M624" s="2" t="s">
+      <c r="M624" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N624" s="2" t="s">
@@ -39344,7 +39344,7 @@
         <v>1139</v>
       </c>
       <c r="L629" s="4"/>
-      <c r="M629" s="2" t="s">
+      <c r="M629" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N629" s="2" t="s">
@@ -39492,7 +39492,7 @@
       </c>
       <c r="K632" s="2"/>
       <c r="L632" s="4"/>
-      <c r="M632" s="2" t="s">
+      <c r="M632" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N632" s="2" t="s">
@@ -39656,7 +39656,7 @@
         <v>1140</v>
       </c>
       <c r="L635" s="4"/>
-      <c r="M635" s="2" t="s">
+      <c r="M635" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N635" s="2" t="s">
@@ -39812,7 +39812,7 @@
       </c>
       <c r="K638" s="2"/>
       <c r="L638" s="4"/>
-      <c r="M638" s="2" t="s">
+      <c r="M638" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N638" s="2" t="s">
@@ -40664,7 +40664,7 @@
       </c>
       <c r="K654" s="2"/>
       <c r="L654" s="4"/>
-      <c r="M654" s="2" t="s">
+      <c r="M654" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N654" s="2" t="s">
@@ -40824,7 +40824,7 @@
         <v>1142</v>
       </c>
       <c r="L657" s="4"/>
-      <c r="M657" s="2" t="s">
+      <c r="M657" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N657" s="2" t="s">
@@ -41038,7 +41038,7 @@
       </c>
       <c r="K661" s="2"/>
       <c r="L661" s="4"/>
-      <c r="M661" s="2" t="s">
+      <c r="M661" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N661" s="2" t="s">
@@ -41196,7 +41196,7 @@
       </c>
       <c r="K664" s="2"/>
       <c r="L664" s="4"/>
-      <c r="M664" s="2" t="s">
+      <c r="M664" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N664" s="2" t="s">
@@ -41408,7 +41408,7 @@
       </c>
       <c r="K668" s="2"/>
       <c r="L668" s="4"/>
-      <c r="M668" s="2" t="s">
+      <c r="M668" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N668" s="2" t="s">
@@ -41764,7 +41764,7 @@
         <v>1143</v>
       </c>
       <c r="L675" s="4"/>
-      <c r="M675" s="2" t="s">
+      <c r="M675" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N675" s="2" t="s">
@@ -42068,7 +42068,7 @@
         <v>1144</v>
       </c>
       <c r="L681" s="4"/>
-      <c r="M681" s="2" t="s">
+      <c r="M681" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N681" s="2" t="s">
@@ -42218,7 +42218,7 @@
         <v>1145</v>
       </c>
       <c r="L684" s="4"/>
-      <c r="M684" s="2" t="s">
+      <c r="M684" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N684" s="2" t="s">
@@ -42438,7 +42438,7 @@
         <v>1139</v>
       </c>
       <c r="L688" s="4"/>
-      <c r="M688" s="2" t="s">
+      <c r="M688" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N688" s="2" t="s">
@@ -42604,7 +42604,7 @@
         <v>1147</v>
       </c>
       <c r="L691" s="4"/>
-      <c r="M691" s="2" t="s">
+      <c r="M691" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N691" s="2" t="s">
@@ -42770,7 +42770,7 @@
         <v>1148</v>
       </c>
       <c r="L694" s="4"/>
-      <c r="M694" s="2" t="s">
+      <c r="M694" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N694" s="2" t="s">
@@ -42930,7 +42930,7 @@
       </c>
       <c r="K697" s="2"/>
       <c r="L697" s="4"/>
-      <c r="M697" s="2" t="s">
+      <c r="M697" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N697" s="2" t="s">
@@ -43148,7 +43148,7 @@
         <v>1150</v>
       </c>
       <c r="L701" s="4"/>
-      <c r="M701" s="2" t="s">
+      <c r="M701" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N701" s="2" t="s">
@@ -43560,7 +43560,7 @@
         <v>1151</v>
       </c>
       <c r="L709" s="4"/>
-      <c r="M709" s="2" t="s">
+      <c r="M709" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N709" s="2" t="s">
@@ -43918,7 +43918,7 @@
         <v>1152</v>
       </c>
       <c r="L716" s="4"/>
-      <c r="M716" s="2" t="s">
+      <c r="M716" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N716" s="2" t="s">
@@ -44118,7 +44118,7 @@
         <v>1153</v>
       </c>
       <c r="L720" s="4"/>
-      <c r="M720" s="2" t="s">
+      <c r="M720" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N720" s="2" t="s">
@@ -44266,7 +44266,7 @@
       </c>
       <c r="K723" s="2"/>
       <c r="L723" s="4"/>
-      <c r="M723" s="2" t="s">
+      <c r="M723" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N723" s="2" t="s">
@@ -44420,7 +44420,7 @@
       </c>
       <c r="K726" s="2"/>
       <c r="L726" s="4"/>
-      <c r="M726" s="2" t="s">
+      <c r="M726" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N726" s="2" t="s">
@@ -44568,7 +44568,7 @@
         <v>1154</v>
       </c>
       <c r="L729" s="4"/>
-      <c r="M729" s="2" t="s">
+      <c r="M729" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N729" s="2" t="s">
@@ -44728,7 +44728,7 @@
       </c>
       <c r="K732" s="2"/>
       <c r="L732" s="4"/>
-      <c r="M732" s="2" t="s">
+      <c r="M732" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N732" s="2" t="s">
@@ -45050,7 +45050,7 @@
         <v>1156</v>
       </c>
       <c r="L738" s="4"/>
-      <c r="M738" s="2" t="s">
+      <c r="M738" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N738" s="2" t="s">
@@ -45198,7 +45198,7 @@
       </c>
       <c r="K741" s="2"/>
       <c r="L741" s="4"/>
-      <c r="M741" s="2" t="s">
+      <c r="M741" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N741" s="2" t="s">
@@ -45352,7 +45352,7 @@
       </c>
       <c r="K744" s="2"/>
       <c r="L744" s="4"/>
-      <c r="M744" s="2" t="s">
+      <c r="M744" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N744" s="2" t="s">
@@ -45498,7 +45498,7 @@
       </c>
       <c r="K747" s="2"/>
       <c r="L747" s="4"/>
-      <c r="M747" s="2" t="s">
+      <c r="M747" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N747" s="2" t="s">
@@ -45656,7 +45656,7 @@
       </c>
       <c r="K750" s="2"/>
       <c r="L750" s="4"/>
-      <c r="M750" s="2" t="s">
+      <c r="M750" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N750" s="2" t="s">
@@ -46028,7 +46028,7 @@
         <v>1153</v>
       </c>
       <c r="L757" s="4"/>
-      <c r="M757" s="2" t="s">
+      <c r="M757" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N757" s="2" t="s">
@@ -46176,7 +46176,7 @@
       </c>
       <c r="K760" s="2"/>
       <c r="L760" s="4"/>
-      <c r="M760" s="2" t="s">
+      <c r="M760" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N760" s="2" t="s">
@@ -46330,7 +46330,7 @@
       </c>
       <c r="K763" s="2"/>
       <c r="L763" s="4"/>
-      <c r="M763" s="2" t="s">
+      <c r="M763" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N763" s="2" t="s">
@@ -46476,7 +46476,7 @@
       </c>
       <c r="K766" s="2"/>
       <c r="L766" s="4"/>
-      <c r="M766" s="2" t="s">
+      <c r="M766" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N766" s="2" t="s">
@@ -46634,7 +46634,7 @@
       </c>
       <c r="K769" s="2"/>
       <c r="L769" s="4"/>
-      <c r="M769" s="2" t="s">
+      <c r="M769" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N769" s="2" t="s">
@@ -46790,7 +46790,7 @@
         <v>1153</v>
       </c>
       <c r="L772" s="4"/>
-      <c r="M772" s="2" t="s">
+      <c r="M772" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N772" s="2" t="s">
@@ -47080,7 +47080,7 @@
       </c>
       <c r="K778" s="2"/>
       <c r="L778" s="4"/>
-      <c r="M778" s="2" t="s">
+      <c r="M778" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N778" s="2" t="s">
@@ -47240,7 +47240,7 @@
         <v>1158</v>
       </c>
       <c r="L781" s="4"/>
-      <c r="M781" s="2" t="s">
+      <c r="M781" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N781" s="2" t="s">
@@ -47388,7 +47388,7 @@
       </c>
       <c r="K784" s="2"/>
       <c r="L784" s="4"/>
-      <c r="M784" s="2" t="s">
+      <c r="M784" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N784" s="2" t="s">
@@ -47546,7 +47546,7 @@
       </c>
       <c r="K787" s="2"/>
       <c r="L787" s="4"/>
-      <c r="M787" s="2" t="s">
+      <c r="M787" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N787" s="2" t="s">
@@ -47704,7 +47704,7 @@
       </c>
       <c r="K790" s="2"/>
       <c r="L790" s="4"/>
-      <c r="M790" s="2" t="s">
+      <c r="M790" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N790" s="2" t="s">
@@ -47850,7 +47850,7 @@
       </c>
       <c r="K793" s="2"/>
       <c r="L793" s="4"/>
-      <c r="M793" s="2" t="s">
+      <c r="M793" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N793" s="2" t="s">
@@ -48010,7 +48010,7 @@
         <v>1159</v>
       </c>
       <c r="L796" s="4"/>
-      <c r="M796" s="2" t="s">
+      <c r="M796" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N796" s="2" t="s">
@@ -48158,7 +48158,7 @@
       </c>
       <c r="K799" s="2"/>
       <c r="L799" s="4"/>
-      <c r="M799" s="2" t="s">
+      <c r="M799" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N799" s="2" t="s">
@@ -48316,7 +48316,7 @@
       </c>
       <c r="K802" s="2"/>
       <c r="L802" s="4"/>
-      <c r="M802" s="2" t="s">
+      <c r="M802" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N802" s="2" t="s">
@@ -48726,7 +48726,7 @@
         <v>1160</v>
       </c>
       <c r="L810" s="4"/>
-      <c r="M810" s="2" t="s">
+      <c r="M810" s="3" t="s">
         <v>165</v>
       </c>
       <c r="N810" s="2" t="s">
@@ -48874,7 +48874,7 @@
       </c>
       <c r="K813" s="2"/>
       <c r="L813" s="4"/>
-      <c r="M813" s="2" t="s">
+      <c r="M813" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N813" s="2" t="s">
@@ -49032,7 +49032,7 @@
       </c>
       <c r="K816" s="2"/>
       <c r="L816" s="4"/>
-      <c r="M816" s="2" t="s">
+      <c r="M816" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N816" s="2" t="s">
@@ -49440,7 +49440,7 @@
       </c>
       <c r="K824" s="2"/>
       <c r="L824" s="4"/>
-      <c r="M824" s="2" t="s">
+      <c r="M824" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N824" s="2" t="s">
@@ -49862,7 +49862,7 @@
         <v>1162</v>
       </c>
       <c r="L832" s="4"/>
-      <c r="M832" s="2" t="s">
+      <c r="M832" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N832" s="2" t="s">
@@ -50010,7 +50010,7 @@
       </c>
       <c r="K835" s="2"/>
       <c r="L835" s="4"/>
-      <c r="M835" s="2" t="s">
+      <c r="M835" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N835" s="2" t="s">
@@ -50168,7 +50168,7 @@
       </c>
       <c r="K838" s="2"/>
       <c r="L838" s="4"/>
-      <c r="M838" s="2" t="s">
+      <c r="M838" s="3" t="s">
         <v>168</v>
       </c>
       <c r="N838" s="2" t="s">
@@ -50412,7 +50412,7 @@
         <v>1163</v>
       </c>
       <c r="L843" s="4"/>
-      <c r="M843" s="2" t="s">
+      <c r="M843" s="3" t="s">
         <v>169</v>
       </c>
       <c r="N843" s="2" t="s">
@@ -50726,7 +50726,7 @@
       </c>
       <c r="K849" s="2"/>
       <c r="L849" s="4"/>
-      <c r="M849" s="2" t="s">
+      <c r="M849" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N849" s="2" t="s">
@@ -50886,7 +50886,7 @@
         <v>1163</v>
       </c>
       <c r="L852" s="4"/>
-      <c r="M852" s="2" t="s">
+      <c r="M852" s="3" t="s">
         <v>170</v>
       </c>
       <c r="N852" s="2" t="s">
@@ -51420,7 +51420,7 @@
       </c>
       <c r="K862" s="2"/>
       <c r="L862" s="4"/>
-      <c r="M862" s="2" t="s">
+      <c r="M862" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N862" s="2" t="s">
@@ -51580,7 +51580,7 @@
         <v>1165</v>
       </c>
       <c r="L865" s="4"/>
-      <c r="M865" s="2" t="s">
+      <c r="M865" s="3" t="s">
         <v>171</v>
       </c>
       <c r="N865" s="2" t="s">
@@ -51894,7 +51894,7 @@
       </c>
       <c r="K871" s="2"/>
       <c r="L871" s="4"/>
-      <c r="M871" s="2" t="s">
+      <c r="M871" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N871" s="2" t="s">
@@ -52054,7 +52054,7 @@
         <v>1165</v>
       </c>
       <c r="L874" s="4"/>
-      <c r="M874" s="2" t="s">
+      <c r="M874" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N874" s="2" t="s">
@@ -52586,7 +52586,7 @@
         <v>1166</v>
       </c>
       <c r="L884" s="4"/>
-      <c r="M884" s="2" t="s">
+      <c r="M884" s="3" t="s">
         <v>173</v>
       </c>
       <c r="N884" s="2" t="s">
@@ -53008,7 +53008,7 @@
       </c>
       <c r="K892" s="2"/>
       <c r="L892" s="4"/>
-      <c r="M892" s="2" t="s">
+      <c r="M892" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N892" s="2" t="s">
@@ -53168,7 +53168,7 @@
         <v>1168</v>
       </c>
       <c r="L895" s="4"/>
-      <c r="M895" s="2" t="s">
+      <c r="M895" s="3" t="s">
         <v>174</v>
       </c>
       <c r="N895" s="2" t="s">
@@ -53702,7 +53702,7 @@
       </c>
       <c r="K905" s="2"/>
       <c r="L905" s="4"/>
-      <c r="M905" s="2" t="s">
+      <c r="M905" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N905" s="2" t="s">
@@ -53862,7 +53862,7 @@
       </c>
       <c r="K908" s="2"/>
       <c r="L908" s="4"/>
-      <c r="M908" s="2" t="s">
+      <c r="M908" s="3" t="s">
         <v>175</v>
       </c>
       <c r="N908" s="2"/>
